--- a/Delay Model/OutPut/3rd/main_30_10.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_10.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -344,10 +344,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1027.3841610379973</v>
+        <v>1027.384161038</v>
       </c>
       <c r="C1">
-        <v>11.610091984225621</v>
+        <v>9.8443438331496207</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -359,7 +359,7 @@
         <v>396.69902246003164</v>
       </c>
       <c r="G1">
-        <v>11.633963455797824</v>
+        <v>9.8418471971860697</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>11.320929594443806</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="R1">
         <v>0</v>
@@ -398,10 +398,10 @@
         <v>0</v>
       </c>
       <c r="T1">
-        <v>0.19587461066697429</v>
+        <v>0.202506901722942</v>
       </c>
       <c r="U1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="AE1">
-        <v>11.40305300985715</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="AF1">
         <v>0</v>
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="AH1">
-        <v>7.839377904689063</v>
+        <v>8.2233768111590599</v>
       </c>
       <c r="AI1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="AJ1">
         <v>0</v>
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="AL1">
-        <v>6.5013183859196984</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AM1">
         <v>0</v>
@@ -464,7 +464,7 @@
         <v>9.2740544995124949</v>
       </c>
       <c r="AP1">
-        <v>6.5013183859197889</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AQ1">
         <v>0</v>
@@ -475,11 +475,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f>B1*2</f>
-        <v>2054.7683220759945</v>
+        <v>2054.768322076</v>
       </c>
       <c r="C2">
-        <v>23.306888923970405</v>
+        <v>19.762205894692976</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -491,7 +490,7 @@
         <v>14347.754780638197</v>
       </c>
       <c r="G2">
-        <v>23.33803678478963</v>
+        <v>19.743004418991941</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -521,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>51.316102563736536</v>
+        <v>28.467171455087001</v>
       </c>
       <c r="R2">
-        <v>28.185810469127976</v>
+        <v>8.2202576742737694</v>
       </c>
       <c r="S2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>0.33010304781981409</v>
+        <v>0.36298914529252702</v>
       </c>
       <c r="U2">
-        <v>51.538543383955037</v>
+        <v>28.460717719406901</v>
       </c>
       <c r="V2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -563,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.290546378039807</v>
+        <v>22.7312018312996</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -572,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>35.620528892421618</v>
+        <v>22.413708315094699</v>
       </c>
       <c r="AI2">
-        <v>30.283901021604638</v>
+        <v>22.7457347018306</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -584,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>12.147499786197514</v>
+        <v>9.9033685267320362</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -596,7 +595,7 @@
         <v>14401.209962895831</v>
       </c>
       <c r="AP2">
-        <v>12.14749978619742</v>
+        <v>9.9033685267320362</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -607,11 +606,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <f>B1*3</f>
-        <v>3082.1524831139918</v>
+        <v>3082.152483114</v>
       </c>
       <c r="C3">
-        <v>34.338410134882388</v>
+        <v>29.115972251621969</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -623,7 +621,7 @@
         <v>14401.482069347501</v>
       </c>
       <c r="G3">
-        <v>34.381989785775879</v>
+        <v>29.085727412886488</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -653,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>74.368404938047576</v>
+        <v>52.018620258839903</v>
       </c>
       <c r="R3">
-        <v>39.958551592821877</v>
+        <v>21.937090365042</v>
       </c>
       <c r="S3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>0.29871383805326374</v>
+        <v>0.31410029503186598</v>
       </c>
       <c r="U3">
-        <v>74.697825343307272</v>
+        <v>51.833036634750897</v>
       </c>
       <c r="V3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -695,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>48.045575769917619</v>
+        <v>35.853705045367001</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -704,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>44.39317183749386</v>
+        <v>66.001699949274098</v>
       </c>
       <c r="AI3">
-        <v>48.032850601891191</v>
+        <v>35.7370575706423</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.219152418468077</v>
+        <v>12.407563508323724</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -728,7 +726,7 @@
         <v>14401.147309315706</v>
       </c>
       <c r="AP3">
-        <v>15.219152418467756</v>
+        <v>12.407563508323724</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -739,11 +737,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <f>B1*4</f>
-        <v>4109.5366441519891</v>
+        <v>4109.536644152</v>
       </c>
       <c r="C4">
-        <v>49.444886594813646</v>
+        <v>41.924944702572205</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -755,7 +752,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G4">
-        <v>49.449597484429084</v>
+        <v>41.832294235166387</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -785,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>98.509736371571663</v>
+        <v>76.572763806806506</v>
       </c>
       <c r="R4">
-        <v>51.738716684468962</v>
+        <v>35.6616051636694</v>
       </c>
       <c r="S4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T4">
-        <v>0.64246112200602701</v>
+        <v>0.67058119855312703</v>
       </c>
       <c r="U4">
-        <v>99.779962590508177</v>
+        <v>76.510332493623594</v>
       </c>
       <c r="V4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>64.282913506395403</v>
+        <v>49.649240883804403</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -836,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>58.233091371384596</v>
+        <v>87.610868060548697</v>
       </c>
       <c r="AI4">
-        <v>64.299594045787501</v>
+        <v>49.593963830450498</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>20.681192778312155</v>
+        <v>16.860545565823504</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -860,7 +857,7 @@
         <v>14401.377711899091</v>
       </c>
       <c r="AP4">
-        <v>20.681192778312539</v>
+        <v>16.860545565823504</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -871,11 +868,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <f>B1*5</f>
-        <v>5136.9208051899859</v>
+        <v>5136.9208051900005</v>
       </c>
       <c r="C5">
-        <v>62.288166680273626</v>
+        <v>52.814924323620332</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -887,7 +883,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G5">
-        <v>62.242600698812552</v>
+        <v>52.654640661424608</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>151.18963198750515</v>
+        <v>109.45608293239199</v>
       </c>
       <c r="R5">
-        <v>91.782514477478145</v>
+        <v>57.6494277609414</v>
       </c>
       <c r="S5">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="T5">
-        <v>0.46021296970827086</v>
+        <v>0.53202091297113097</v>
       </c>
       <c r="U5">
-        <v>154.75284694826257</v>
+        <v>109.24047552071799</v>
       </c>
       <c r="V5">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -959,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>92.574737645850973</v>
+        <v>75.875051475845297</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -968,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>42.841231137792683</v>
+        <v>97.878079306209003</v>
       </c>
       <c r="AI5">
-        <v>92.584253722385597</v>
+        <v>75.655304043969196</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>24.923966490079255</v>
+        <v>20.319508511507408</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -992,7 +988,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP5">
-        <v>24.923394210603647</v>
+        <v>20.319508511507408</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1003,11 +999,10 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <f>B1*6</f>
-        <v>6164.3049662279836</v>
+        <v>6164.304966228</v>
       </c>
       <c r="C6">
-        <v>78.359282190508296</v>
+        <v>66.441826425685477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1019,7 +1014,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G6">
-        <v>77.52951757761366</v>
+        <v>65.586733890776046</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1049,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>200.97919775323194</v>
+        <v>138.80967346852</v>
       </c>
       <c r="R6">
-        <v>129.48411705356926</v>
+        <v>76.881476792806197</v>
       </c>
       <c r="S6">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="T6">
-        <v>0.9489600403278694</v>
+        <v>0.93956073911250204</v>
       </c>
       <c r="U6">
-        <v>207.80586540237874</v>
+        <v>138.66836843029</v>
       </c>
       <c r="V6">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1091,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>114.02635463238596</v>
+        <v>96.270181883432699</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1100,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>73.506301624650561</v>
+        <v>129.88522636229001</v>
       </c>
       <c r="AI6">
-        <v>114.06786984404765</v>
+        <v>96.300130319730897</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1112,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>29.022875724300228</v>
+        <v>23.661184528677516</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1124,7 +1119,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP6">
-        <v>29.02218482651859</v>
+        <v>23.661184528677516</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1135,11 +1130,10 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <f>B1*7</f>
-        <v>7191.6891272659814</v>
+        <v>7191.6891272659996</v>
       </c>
       <c r="C7">
-        <v>90.518730630274703</v>
+        <v>76.751976545525295</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1151,7 +1145,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G7">
-        <v>88.670626387976526</v>
+        <v>75.011646641741478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1181,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>231.43695091722338</v>
+        <v>170.745448490825</v>
       </c>
       <c r="R7">
-        <v>148.45070550552128</v>
+        <v>98.935511330031503</v>
       </c>
       <c r="S7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="T7">
-        <v>0.6559019015096087</v>
+        <v>0.99355299274825304</v>
       </c>
       <c r="U7">
-        <v>244.89822504225202</v>
+        <v>170.19674237878701</v>
       </c>
       <c r="V7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1223,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>145.70746308481802</v>
+        <v>127.131878535421</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1232,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>41.247952396679587</v>
+        <v>80.988331466009697</v>
       </c>
       <c r="AI7">
-        <v>145.62703181069523</v>
+        <v>127.220184130874</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>33.341919853208267</v>
+        <v>27.182327681147065</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1256,7 +1250,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP7">
-        <v>33.341670299544944</v>
+        <v>27.182327681147065</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1267,11 +1261,10 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <f>B1*8</f>
-        <v>8219.0732883039782</v>
+        <v>8219.073288304</v>
       </c>
       <c r="C8">
-        <v>106.71900243095779</v>
+        <v>90.488391899777923</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1283,7 +1276,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G8">
-        <v>105.67266658757552</v>
+        <v>89.394662569256539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1313,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>284.81340549348874</v>
+        <v>204.19993319915301</v>
       </c>
       <c r="R8">
-        <v>188.57216074042023</v>
+        <v>120.96653357353399</v>
       </c>
       <c r="S8">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="T8">
-        <v>0.74236741343809309</v>
+        <v>0.76531969159925595</v>
       </c>
       <c r="U8">
-        <v>307.48120709988621</v>
+        <v>203.793290075279</v>
       </c>
       <c r="V8">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1355,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>156.65249373514391</v>
+        <v>139.50809804821199</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1364,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>177.15852668955915</v>
+        <v>201.921388704088</v>
       </c>
       <c r="AI8">
-        <v>156.53138344940407</v>
+        <v>139.30322060703801</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1376,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>42.782384635737827</v>
+        <v>34.878759329678999</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1388,7 +1381,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP8">
-        <v>42.781740235582689</v>
+        <v>34.878759329678999</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1399,11 +1392,10 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <f>B1*9</f>
-        <v>9246.457449341975</v>
+        <v>9246.4574493420005</v>
       </c>
       <c r="C9">
-        <v>115.30387635914404</v>
+        <v>97.767615081483342</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1415,7 +1407,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G9">
-        <v>113.26548352404919</v>
+        <v>95.817868587472077</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1445,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>327.53494616890458</v>
+        <v>254.61607064427801</v>
       </c>
       <c r="R9">
-        <v>212.32539182767016</v>
+        <v>148.564946060436</v>
       </c>
       <c r="S9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="T9">
-        <v>0.79825398656475133</v>
+        <v>0.88202359938876096</v>
       </c>
       <c r="U9">
-        <v>407.43315248490069</v>
+        <v>253.68559406050599</v>
       </c>
       <c r="V9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1487,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>190.44412257970413</v>
+        <v>175.54783964201047</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1496,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>135.62427604995472</v>
+        <v>143.90268959960247</v>
       </c>
       <c r="AI9">
-        <v>190.63358095325805</v>
+        <v>178.32077633946301</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1508,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>51.55801778768857</v>
+        <v>42.033180460677798</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1520,7 +1512,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP9">
-        <v>51.557286290819604</v>
+        <v>42.033180460677826</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1531,11 +1523,10 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <f>B1*10</f>
-        <v>10273.841610379972</v>
+        <v>10273.841610380001</v>
       </c>
       <c r="C10">
-        <v>129.14182065652199</v>
+        <v>109.5009830679254</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1547,7 +1538,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G10">
-        <v>128.01058372119942</v>
+        <v>108.29160753283814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1577,22 +1568,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>409.85086246585041</v>
+        <v>546.52197946495698</v>
       </c>
       <c r="R10">
-        <v>236.13734731240947</v>
+        <v>176.22350135519801</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="T10">
-        <v>0.78241636944879456</v>
+        <v>0.807347115182526</v>
       </c>
       <c r="U10">
-        <v>1712.2025871934463</v>
+        <v>545.95170437980005</v>
       </c>
       <c r="V10">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1619,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>216.74714043387988</v>
+        <v>191.76053535459999</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1628,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>227.90634476535723</v>
+        <v>225.540570042019</v>
       </c>
       <c r="AI10">
-        <v>216.46087905678633</v>
+        <v>191.77803619477999</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1640,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>60.036967117524334</v>
+        <v>48.94572719134429</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1652,7 +1643,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP10">
-        <v>60.036168398335462</v>
+        <v>48.94572719134429</v>
       </c>
       <c r="AQ10">
         <v>0</v>

--- a/Delay Model/OutPut/3rd/main_30_10.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_10.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75D1F2AD-F07D-4FEA-B45B-3BEF8607B7A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,11 +331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>49.649240883804403</v>
+        <v>55.335599999999999</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -836,7 +837,7 @@
         <v>87.610868060548697</v>
       </c>
       <c r="AI4">
-        <v>49.593963830450498</v>
+        <v>55.22</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -955,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>75.875051475845297</v>
+        <v>78.437399999999997</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -967,7 +968,7 @@
         <v>97.878079306209003</v>
       </c>
       <c r="AI5">
-        <v>75.655304043969196</v>
+        <v>78.169300000000007</v>
       </c>
       <c r="AJ5">
         <v>0</v>

--- a/Delay Model/OutPut/3rd/main_30_10.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75D1F2AD-F07D-4FEA-B45B-3BEF8607B7A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6658F9D6-E36E-4C0C-9831-06CD5B22958F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1361,7 +1361,7 @@
         <v>201.921388704088</v>
       </c>
       <c r="AI8">
-        <v>139.30322060703801</v>
+        <v>149.30322060703801</v>
       </c>
       <c r="AJ8">
         <v>0</v>
